--- a/학습자료/단답형/영어.xlsx
+++ b/학습자료/단답형/영어.xlsx
@@ -515,7 +515,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -1680,7 +1680,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61">
@@ -1740,7 +1740,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64">
@@ -1840,7 +1840,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86">
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94">
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
@@ -2928,13 +2928,13 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>have no choice but to 동사원형
+          <t>have no choice but to부정사
 : ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>동사원형</t>
+          <t>to부정사</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140">
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145">
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154">
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155">
@@ -3800,7 +3800,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163">
@@ -3820,7 +3820,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164">
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176">
@@ -4103,7 +4103,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178">
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180">
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
@@ -4250,7 +4250,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -4333,7 +4333,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -4493,7 +4493,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -4553,7 +4553,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200">
@@ -4673,7 +4673,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206">
@@ -4734,7 +4734,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209">
@@ -4860,7 +4860,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218">
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222">
@@ -5106,7 +5106,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229">
@@ -5206,7 +5206,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232">
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233">
@@ -5426,7 +5426,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -5486,7 +5486,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="246">
@@ -5506,7 +5506,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274">
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286">
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="287">
@@ -6326,7 +6326,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="293">
@@ -6526,7 +6526,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299">
@@ -6713,7 +6713,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307">
@@ -6876,7 +6876,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="315">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="316">
@@ -6937,7 +6937,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="318">
@@ -6977,7 +6977,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="320">
@@ -7057,7 +7057,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="324">
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328">
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351">
@@ -7730,7 +7730,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="357">
@@ -7793,7 +7793,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360">
@@ -8019,7 +8019,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="371">
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="390">
@@ -8440,7 +8440,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="392">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
@@ -8660,7 +8660,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="403">
@@ -8680,7 +8680,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
@@ -8780,7 +8780,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="409">
@@ -8800,7 +8800,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="410">
@@ -8980,7 +8980,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419">
@@ -9240,7 +9240,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="432">
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -9280,7 +9280,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="440">
@@ -9600,7 +9600,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
@@ -9620,7 +9620,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="451">
@@ -9760,7 +9760,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="458">
@@ -9840,7 +9840,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
@@ -9940,7 +9940,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="467">
@@ -10020,7 +10020,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="471">
@@ -10060,7 +10060,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="473">
@@ -10220,7 +10220,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="481">
@@ -10260,7 +10260,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="483">
@@ -10280,7 +10280,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="484">
@@ -10647,7 +10647,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502">
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
@@ -10872,7 +10872,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="513">
@@ -10892,7 +10892,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="514">
@@ -11037,7 +11037,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="521">
@@ -11265,7 +11265,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="532">
@@ -11533,7 +11533,7 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="545">
@@ -11593,7 +11593,7 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="548">
@@ -11654,7 +11654,7 @@
         </is>
       </c>
       <c r="D550" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="551">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="D552" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="553">
@@ -11717,7 +11717,7 @@
         </is>
       </c>
       <c r="D553" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="554">
@@ -11843,7 +11843,7 @@
         </is>
       </c>
       <c r="D559" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="560">
@@ -12110,19 +12110,19 @@
         </is>
       </c>
       <c r="D572" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>have no choice but to 동사원형 
+          <t>have no choice but to부정사 
 : ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>동사원형</t>
+          <t>to부정사</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
@@ -12137,13 +12137,13 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>have no alternative but to 동사원형 
+          <t>have no alternative but to부정사 
 : ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>동사원형</t>
+          <t>to부정사</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -12158,13 +12158,13 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>have other choice but to 동사원형 
+          <t>have other choice but to부정사 
 : ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>동사원형</t>
+          <t>to부정사</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -12179,13 +12179,13 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>have other alternative but to 동사원형 
+          <t>have other alternative but to부정사 
 : ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>동사원형</t>
+          <t>to부정사</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -12194,7 +12194,7 @@
         </is>
       </c>
       <c r="D576" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="577">
@@ -12383,7 +12383,7 @@
         </is>
       </c>
       <c r="D585" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="586">
@@ -12750,7 +12750,7 @@
         </is>
       </c>
       <c r="D603" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="604">
@@ -13064,7 +13064,7 @@
         </is>
       </c>
       <c r="D618" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="619">
@@ -13224,7 +13224,7 @@
         </is>
       </c>
       <c r="D626" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="627">
@@ -13390,7 +13390,7 @@
         </is>
       </c>
       <c r="D634" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="635">
@@ -13514,7 +13514,7 @@
         </is>
       </c>
       <c r="D640" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="641">
@@ -13556,7 +13556,7 @@
         </is>
       </c>
       <c r="D642" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="643">
@@ -14031,7 +14031,7 @@
         </is>
       </c>
       <c r="D665" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="666">
@@ -14361,7 +14361,7 @@
         </is>
       </c>
       <c r="D681" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682">
@@ -14382,7 +14382,7 @@
         </is>
       </c>
       <c r="D682" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="683">
@@ -14424,7 +14424,7 @@
         </is>
       </c>
       <c r="D684" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="685">
@@ -14485,7 +14485,7 @@
         </is>
       </c>
       <c r="D687" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="688">
@@ -14526,7 +14526,7 @@
         </is>
       </c>
       <c r="D689" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="690">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="D708" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="709">
@@ -14983,7 +14983,7 @@
         </is>
       </c>
       <c r="D711" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="712">
@@ -15163,7 +15163,7 @@
         </is>
       </c>
       <c r="D720" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="721">
@@ -15243,7 +15243,7 @@
         </is>
       </c>
       <c r="D724" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="725">
@@ -15283,7 +15283,7 @@
         </is>
       </c>
       <c r="D726" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="727">
@@ -15343,7 +15343,7 @@
         </is>
       </c>
       <c r="D729" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="730">
@@ -15383,7 +15383,7 @@
         </is>
       </c>
       <c r="D731" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="732">
@@ -15403,7 +15403,7 @@
         </is>
       </c>
       <c r="D732" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="733">
@@ -15663,7 +15663,7 @@
         </is>
       </c>
       <c r="D745" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="746">
@@ -15683,7 +15683,7 @@
         </is>
       </c>
       <c r="D746" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="747">
@@ -15703,7 +15703,7 @@
         </is>
       </c>
       <c r="D747" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="748">
@@ -15843,7 +15843,7 @@
         </is>
       </c>
       <c r="D754" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="755">
@@ -15903,7 +15903,7 @@
         </is>
       </c>
       <c r="D757" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="758">
@@ -15943,7 +15943,7 @@
         </is>
       </c>
       <c r="D759" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760">
@@ -15963,7 +15963,7 @@
         </is>
       </c>
       <c r="D760" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="761">
@@ -16143,7 +16143,7 @@
         </is>
       </c>
       <c r="D769" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="770">
@@ -16243,7 +16243,7 @@
         </is>
       </c>
       <c r="D774" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="775">
@@ -16403,7 +16403,7 @@
         </is>
       </c>
       <c r="D782" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="783">
@@ -16463,7 +16463,7 @@
         </is>
       </c>
       <c r="D785" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="786">
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="D788" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="789">
@@ -16703,7 +16703,7 @@
         </is>
       </c>
       <c r="D797" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="798">
@@ -16743,7 +16743,7 @@
         </is>
       </c>
       <c r="D799" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="800">
@@ -16803,7 +16803,7 @@
         </is>
       </c>
       <c r="D802" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="803">
@@ -16883,7 +16883,7 @@
         </is>
       </c>
       <c r="D806" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="807">
@@ -16923,7 +16923,7 @@
         </is>
       </c>
       <c r="D808" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="809">
@@ -17005,7 +17005,7 @@
         </is>
       </c>
       <c r="D812" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="813">
@@ -17025,7 +17025,7 @@
         </is>
       </c>
       <c r="D813" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="814">
@@ -17065,7 +17065,7 @@
         </is>
       </c>
       <c r="D815" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="816">
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="D822" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="823">
@@ -17325,7 +17325,7 @@
         </is>
       </c>
       <c r="D828" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="829">
@@ -17365,7 +17365,7 @@
         </is>
       </c>
       <c r="D830" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="831">
@@ -17385,7 +17385,7 @@
         </is>
       </c>
       <c r="D831" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="832">
@@ -17405,7 +17405,7 @@
         </is>
       </c>
       <c r="D832" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="833">
@@ -17445,7 +17445,7 @@
         </is>
       </c>
       <c r="D834" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="835">
@@ -17805,7 +17805,7 @@
         </is>
       </c>
       <c r="D852" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="853">
@@ -17825,7 +17825,7 @@
         </is>
       </c>
       <c r="D853" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="854">
@@ -17985,7 +17985,7 @@
         </is>
       </c>
       <c r="D861" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="862">
@@ -18265,7 +18265,7 @@
         </is>
       </c>
       <c r="D875" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="876">
@@ -18385,7 +18385,7 @@
         </is>
       </c>
       <c r="D881" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="882">
@@ -18485,7 +18485,7 @@
         </is>
       </c>
       <c r="D886" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="887">
@@ -18667,7 +18667,7 @@
         </is>
       </c>
       <c r="D895" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="896">
@@ -18688,7 +18688,7 @@
         </is>
       </c>
       <c r="D896" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="897">
@@ -18751,7 +18751,7 @@
         </is>
       </c>
       <c r="D899" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="900">
@@ -18856,7 +18856,7 @@
         </is>
       </c>
       <c r="D904" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="905">
@@ -18982,7 +18982,7 @@
         </is>
       </c>
       <c r="D910" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="911">
@@ -19185,7 +19185,7 @@
         </is>
       </c>
       <c r="D920" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="921">
@@ -19285,7 +19285,7 @@
         </is>
       </c>
       <c r="D925" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="926">
@@ -19325,7 +19325,7 @@
         </is>
       </c>
       <c r="D927" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="928">
@@ -19545,7 +19545,7 @@
         </is>
       </c>
       <c r="D938" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="939">
@@ -20065,7 +20065,7 @@
         </is>
       </c>
       <c r="D964" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="965">
@@ -20245,7 +20245,7 @@
         </is>
       </c>
       <c r="D973" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="974">
@@ -20325,7 +20325,7 @@
         </is>
       </c>
       <c r="D977" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="978">
@@ -20725,7 +20725,7 @@
         </is>
       </c>
       <c r="D997" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="998">
@@ -20805,7 +20805,7 @@
         </is>
       </c>
       <c r="D1001" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1002">
@@ -20965,7 +20965,7 @@
         </is>
       </c>
       <c r="D1009" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1010">
@@ -20985,7 +20985,7 @@
         </is>
       </c>
       <c r="D1010" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1011">
@@ -21025,7 +21025,7 @@
         </is>
       </c>
       <c r="D1012" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1013">
@@ -21145,7 +21145,7 @@
         </is>
       </c>
       <c r="D1018" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1019">
@@ -21205,7 +21205,7 @@
         </is>
       </c>
       <c r="D1021" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1022">
@@ -21745,7 +21745,7 @@
         </is>
       </c>
       <c r="D1048" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1049">
@@ -22085,7 +22085,7 @@
         </is>
       </c>
       <c r="D1065" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1066">
@@ -22185,7 +22185,7 @@
         </is>
       </c>
       <c r="D1070" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1071">
@@ -22365,7 +22365,7 @@
         </is>
       </c>
       <c r="D1079" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1080">
@@ -22545,7 +22545,7 @@
         </is>
       </c>
       <c r="D1088" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1089">
@@ -22645,7 +22645,7 @@
         </is>
       </c>
       <c r="D1093" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1094">
@@ -22745,7 +22745,7 @@
         </is>
       </c>
       <c r="D1098" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1099">
@@ -22845,7 +22845,7 @@
         </is>
       </c>
       <c r="D1103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104">
@@ -22905,7 +22905,7 @@
         </is>
       </c>
       <c r="D1106" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1107">
@@ -22945,7 +22945,7 @@
         </is>
       </c>
       <c r="D1108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1109">
@@ -23225,7 +23225,7 @@
         </is>
       </c>
       <c r="D1122" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1123">
@@ -23265,7 +23265,7 @@
         </is>
       </c>
       <c r="D1124" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1125">
@@ -23305,7 +23305,7 @@
         </is>
       </c>
       <c r="D1126" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1127">
@@ -23405,7 +23405,7 @@
         </is>
       </c>
       <c r="D1131" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1132">
@@ -23505,7 +23505,7 @@
         </is>
       </c>
       <c r="D1136" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1137">
@@ -23545,7 +23545,7 @@
         </is>
       </c>
       <c r="D1138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1139">
@@ -23625,7 +23625,7 @@
         </is>
       </c>
       <c r="D1142" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1143">
@@ -23665,7 +23665,7 @@
         </is>
       </c>
       <c r="D1144" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1145">
@@ -23745,7 +23745,7 @@
         </is>
       </c>
       <c r="D1148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1149">
@@ -23785,7 +23785,7 @@
         </is>
       </c>
       <c r="D1150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1151">
@@ -23905,7 +23905,7 @@
         </is>
       </c>
       <c r="D1156" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1157">
@@ -23925,7 +23925,7 @@
         </is>
       </c>
       <c r="D1157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1158">
@@ -23965,7 +23965,7 @@
         </is>
       </c>
       <c r="D1159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1160">
@@ -24085,7 +24085,7 @@
         </is>
       </c>
       <c r="D1165" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1166">
@@ -24125,7 +24125,7 @@
         </is>
       </c>
       <c r="D1167" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1168">
@@ -24145,7 +24145,7 @@
         </is>
       </c>
       <c r="D1168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1169">
@@ -24185,7 +24185,7 @@
         </is>
       </c>
       <c r="D1170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1171">
@@ -24465,7 +24465,7 @@
         </is>
       </c>
       <c r="D1184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1185">
@@ -24525,7 +24525,7 @@
         </is>
       </c>
       <c r="D1187" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1188">
@@ -24645,7 +24645,7 @@
         </is>
       </c>
       <c r="D1193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1194">
@@ -24725,7 +24725,7 @@
         </is>
       </c>
       <c r="D1197" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1198">
@@ -24745,7 +24745,7 @@
         </is>
       </c>
       <c r="D1198" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1199">
@@ -24925,7 +24925,7 @@
         </is>
       </c>
       <c r="D1207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1208">
@@ -24945,7 +24945,7 @@
         </is>
       </c>
       <c r="D1208" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1209">
@@ -25125,7 +25125,7 @@
         </is>
       </c>
       <c r="D1217" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1218">
@@ -25165,7 +25165,7 @@
         </is>
       </c>
       <c r="D1219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1220">
@@ -25205,7 +25205,7 @@
         </is>
       </c>
       <c r="D1221" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1222">
@@ -25405,7 +25405,7 @@
         </is>
       </c>
       <c r="D1231" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1232">
@@ -25465,7 +25465,7 @@
         </is>
       </c>
       <c r="D1234" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1235">
@@ -25585,7 +25585,7 @@
         </is>
       </c>
       <c r="D1240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1241">
@@ -25925,7 +25925,7 @@
         </is>
       </c>
       <c r="D1257" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1258">
@@ -25965,7 +25965,7 @@
         </is>
       </c>
       <c r="D1259" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1260">

--- a/학습자료/단답형/영어.xlsx
+++ b/학습자료/단답형/영어.xlsx
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1208,7 +1208,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48">
@@ -1460,7 +1460,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74">
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85">
@@ -2397,7 +2397,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96">
@@ -2460,7 +2460,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99">
@@ -2880,7 +2880,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119">
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123">
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139">
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217">
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="223">
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225">
@@ -5386,7 +5386,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="241">
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="250">
@@ -6106,7 +6106,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277">
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="308">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="311">
@@ -7157,7 +7157,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361">
@@ -8200,7 +8200,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="380">
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -9540,7 +9540,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="447">
@@ -10120,7 +10120,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="476">
@@ -10160,7 +10160,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="478">
@@ -10200,7 +10200,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="480">
@@ -10422,7 +10422,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
@@ -10689,7 +10689,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
@@ -11058,7 +11058,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="522">
@@ -11885,7 +11885,7 @@
         </is>
       </c>
       <c r="D561" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="562">
@@ -12257,7 +12257,7 @@
         </is>
       </c>
       <c r="D579" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580">
@@ -12320,7 +12320,7 @@
         </is>
       </c>
       <c r="D582" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="583">
@@ -12484,7 +12484,7 @@
         </is>
       </c>
       <c r="D590" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="591">
@@ -12729,7 +12729,7 @@
         </is>
       </c>
       <c r="D602" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="603">
@@ -13577,7 +13577,7 @@
         </is>
       </c>
       <c r="D643" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="644">
@@ -14136,7 +14136,7 @@
         </is>
       </c>
       <c r="D670" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="671">
@@ -14238,7 +14238,7 @@
         </is>
       </c>
       <c r="D675" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="676">
@@ -14298,7 +14298,7 @@
         </is>
       </c>
       <c r="D678" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="679">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="D696" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="697">
@@ -14692,7 +14692,7 @@
         </is>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="698">
@@ -14795,7 +14795,7 @@
         </is>
       </c>
       <c r="D702" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="703">
@@ -14837,7 +14837,7 @@
         </is>
       </c>
       <c r="D704" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="705">
@@ -15323,7 +15323,7 @@
         </is>
       </c>
       <c r="D728" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="729">
@@ -16423,7 +16423,7 @@
         </is>
       </c>
       <c r="D783" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="784">
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="D794" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="795">
@@ -16663,7 +16663,7 @@
         </is>
       </c>
       <c r="D795" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="796">
@@ -16683,7 +16683,7 @@
         </is>
       </c>
       <c r="D796" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="797">
@@ -17125,7 +17125,7 @@
         </is>
       </c>
       <c r="D818" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="819">
@@ -17485,7 +17485,7 @@
         </is>
       </c>
       <c r="D836" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="837">
@@ -18125,7 +18125,7 @@
         </is>
       </c>
       <c r="D868" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="869">
@@ -18405,7 +18405,7 @@
         </is>
       </c>
       <c r="D882" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="883">
@@ -18425,7 +18425,7 @@
         </is>
       </c>
       <c r="D883" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="884">
@@ -18505,7 +18505,7 @@
         </is>
       </c>
       <c r="D887" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888">
@@ -19165,7 +19165,7 @@
         </is>
       </c>
       <c r="D919" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="920">
@@ -19525,7 +19525,7 @@
         </is>
       </c>
       <c r="D937" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="938">
@@ -19645,7 +19645,7 @@
         </is>
       </c>
       <c r="D943" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="944">
@@ -19665,7 +19665,7 @@
         </is>
       </c>
       <c r="D944" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="945">
@@ -19685,7 +19685,7 @@
         </is>
       </c>
       <c r="D945" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="946">
@@ -20505,7 +20505,7 @@
         </is>
       </c>
       <c r="D986" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="987">
@@ -20685,7 +20685,7 @@
         </is>
       </c>
       <c r="D995" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="996">
@@ -20945,7 +20945,7 @@
         </is>
       </c>
       <c r="D1008" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1009">
@@ -21325,7 +21325,7 @@
         </is>
       </c>
       <c r="D1027" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1028">
@@ -21365,7 +21365,7 @@
         </is>
       </c>
       <c r="D1029" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1030">
@@ -21545,7 +21545,7 @@
         </is>
       </c>
       <c r="D1038" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1039">
@@ -22265,7 +22265,7 @@
         </is>
       </c>
       <c r="D1074" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1075">
@@ -22565,7 +22565,7 @@
         </is>
       </c>
       <c r="D1089" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1090">
@@ -22585,7 +22585,7 @@
         </is>
       </c>
       <c r="D1090" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1091">
@@ -23645,7 +23645,7 @@
         </is>
       </c>
       <c r="D1143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1144">
@@ -24245,7 +24245,7 @@
         </is>
       </c>
       <c r="D1173" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1174">
@@ -24325,7 +24325,7 @@
         </is>
       </c>
       <c r="D1177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1178">
@@ -24425,7 +24425,7 @@
         </is>
       </c>
       <c r="D1182" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1183">
@@ -24485,7 +24485,7 @@
         </is>
       </c>
       <c r="D1185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1186">
@@ -24665,7 +24665,7 @@
         </is>
       </c>
       <c r="D1194" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1195">
@@ -24905,7 +24905,7 @@
         </is>
       </c>
       <c r="D1206" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1207">
@@ -24985,7 +24985,7 @@
         </is>
       </c>
       <c r="D1210" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1211">
@@ -25385,7 +25385,7 @@
         </is>
       </c>
       <c r="D1230" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1231">
@@ -25905,7 +25905,7 @@
         </is>
       </c>
       <c r="D1256" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1257">
@@ -25945,7 +25945,7 @@
         </is>
       </c>
       <c r="D1258" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1259">
@@ -26005,7 +26005,7 @@
         </is>
       </c>
       <c r="D1261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1262">
@@ -26105,7 +26105,7 @@
         </is>
       </c>
       <c r="D1266" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1267">
